--- a/G000_ETロボコン・シニア部門作っちゃおうかな/部品表/Tenibo部品表.xlsx
+++ b/G000_ETロボコン・シニア部門作っちゃおうかな/部品表/Tenibo部品表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeniboVideo\部品表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeniboVideo\提出物\ETrobo2018Garageneer\G000_ETロボコン・シニア部門作っちゃおうかな\部品表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,9 @@
     <sheet name="部品表" sheetId="1" r:id="rId1"/>
     <sheet name="部品表について" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">部品表!$A$1:$J$36</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -325,27 +328,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2 点 光 塩ビ板 透明 3×200×300mm EB233-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>塩ビ</t>
-    <rPh sb="0" eb="1">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EB233-1</t>
-  </si>
-  <si>
-    <t>光</t>
-    <rPh sb="0" eb="1">
-      <t>ヒカリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NA</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -403,13 +385,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Raspberry pi用</t>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1 点 Raspberry Pi3 Model B+ ボード＆ケースセット 3ple Decker対応-Physical Computing Lab</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -432,10 +407,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Anker</t>
   </si>
   <si>
@@ -465,10 +436,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Raspberry piケース</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -478,18 +445,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ELP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>車載カメラ</t>
-    <rPh sb="0" eb="2">
-      <t>シャサイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -500,19 +456,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自動運転、通信用</t>
-    <rPh sb="0" eb="4">
-      <t>ジドウウンテン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ABS</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -536,120 +479,10 @@
   </si>
   <si>
     <t>LONG</t>
-  </si>
-  <si>
-    <t>水中ロボット流用</t>
-    <rPh sb="0" eb="2">
-      <t>スイチュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リュウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3Dプリンタ印刷用</t>
-    <rPh sb="6" eb="8">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プラスチック</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>タミヤ TAMIYA
 楽しい工作シリーズ プラボード 3mm厚 B4サイズ(1枚入) [70147]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テニスボーづ拾い実験用</t>
-    <rPh sb="6" eb="7">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッケン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ベース車両</t>
-    <rPh sb="3" eb="5">
-      <t>シャリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前後スピード調整用</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンゴ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステアリング用</t>
-    <rPh sb="6" eb="7">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボール拾い機構用</t>
-    <rPh sb="3" eb="4">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キコウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Raspi電源用</t>
-    <rPh sb="5" eb="7">
-      <t>デンゲン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12V-&gt;5V電源用</t>
-    <rPh sb="7" eb="9">
-      <t>デンゲン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12V-&gt;7.2V電源用。eBayで購入</t>
-    <rPh sb="9" eb="11">
-      <t>デンゲン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウニュウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -673,6 +506,188 @@
   </si>
   <si>
     <t>ETロボコン・シニア部門作っちゃおうかな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動運転、通信用Raspberry pi</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウウンテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Raspberry pi用SDカード</t>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水中ロボット開発の流用</t>
+    <rPh sb="0" eb="2">
+      <t>スイチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベース車両、これを改造して制作</t>
+    <rPh sb="3" eb="5">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テニスボーづ拾い実験に利用</t>
+    <rPh sb="6" eb="7">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手動のステアリングを撤去してサーボで駆動するため</t>
+    <rPh sb="0" eb="2">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テッキョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>クドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベース車の前後駆動モーターのスピード調整</t>
+    <rPh sb="3" eb="4">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クドウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボール拾い機構の一部</t>
+    <rPh sb="3" eb="4">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボール拾い機構のモーター制御</t>
+    <rPh sb="3" eb="4">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12V-&gt;5V電圧変換。Arduino、Raspiは5V駆動。</t>
+    <rPh sb="7" eb="9">
+      <t>デンアツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>クドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Raspberry pi電源ケーブル用</t>
+    <rPh sb="12" eb="14">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車載カメラ、広範囲を映すため魚眼タイプ、210度</t>
+    <rPh sb="0" eb="2">
+      <t>シャサイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>コウハンイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ギョガン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dプリンタ印刷に使用</t>
+    <rPh sb="6" eb="8">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12V-&gt;7.2V電圧変換。サーボ、LEDは7.2V駆動。eBayで購入</t>
+    <rPh sb="9" eb="11">
+      <t>デンアツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>クドウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウニュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -921,7 +936,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17885656-323C-4DBD-BEAD-7AB1C4125184}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17885656-323C-4DBD-BEAD-7AB1C4125184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1967,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C26" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1991,7 +2006,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.25">
@@ -2000,7 +2015,7 @@
       </c>
       <c r="C3" s="18">
         <f>SUM(I8:I96)</f>
-        <v>55443</v>
+        <v>54149</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>23</v>
@@ -2134,7 +2149,7 @@
         <v>16196</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
@@ -2167,7 +2182,7 @@
         <v>1000</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
@@ -2200,7 +2215,7 @@
         <v>785</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
@@ -2233,7 +2248,7 @@
         <v>4910</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
@@ -2266,10 +2281,10 @@
         <v>673</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>6</v>
       </c>
@@ -2277,10 +2292,10 @@
         <v>18</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>44</v>
@@ -2289,17 +2304,17 @@
         <v>45</v>
       </c>
       <c r="G13" s="8">
-        <v>647</v>
+        <v>730</v>
       </c>
       <c r="H13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" si="0"/>
-        <v>1294</v>
+        <f t="shared" ref="I13:I27" si="1">G13*H13</f>
+        <v>730</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
@@ -2310,32 +2325,32 @@
         <v>18</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="G14" s="8">
-        <v>730</v>
+        <v>490</v>
       </c>
       <c r="H14" s="5">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="0"/>
-        <v>730</v>
+        <f t="shared" si="1"/>
+        <v>490</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>8</v>
       </c>
@@ -2343,29 +2358,29 @@
         <v>18</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="E15" s="23">
+        <v>70100</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G15" s="8">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="H15" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="0"/>
-        <v>490</v>
+        <f t="shared" si="1"/>
+        <v>936</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
@@ -2376,29 +2391,29 @@
         <v>18</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E16" s="23">
-        <v>70100</v>
+        <v>70142</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G16" s="8">
-        <v>468</v>
+        <v>632</v>
       </c>
       <c r="H16" s="5">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" si="0"/>
-        <v>936</v>
+        <f t="shared" si="1"/>
+        <v>1264</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
@@ -2409,32 +2424,32 @@
         <v>18</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="23">
-        <v>70142</v>
+        <v>25</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G17" s="8">
-        <v>632</v>
+        <v>513</v>
       </c>
       <c r="H17" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="0"/>
-        <v>1264</v>
+        <f t="shared" si="1"/>
+        <v>513</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>11</v>
       </c>
@@ -2442,32 +2457,32 @@
         <v>18</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G18" s="8">
-        <v>513</v>
+        <v>1580</v>
       </c>
       <c r="H18" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="0"/>
-        <v>513</v>
+        <f t="shared" si="1"/>
+        <v>3160</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>12</v>
       </c>
@@ -2475,32 +2490,32 @@
         <v>18</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G19" s="8">
-        <v>1580</v>
+        <v>6330</v>
       </c>
       <c r="H19" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="0"/>
-        <v>3160</v>
+        <f t="shared" si="1"/>
+        <v>6330</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="71.25" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>13</v>
       </c>
@@ -2508,32 +2523,32 @@
         <v>18</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="G20" s="8">
-        <v>6330</v>
+        <v>799</v>
       </c>
       <c r="H20" s="5">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="0"/>
-        <v>6330</v>
+        <f t="shared" si="1"/>
+        <v>799</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="71.25" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>14</v>
       </c>
@@ -2541,29 +2556,29 @@
         <v>18</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="G21" s="8">
-        <v>799</v>
+        <v>1350</v>
       </c>
       <c r="H21" s="5">
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" si="0"/>
-        <v>799</v>
+        <f t="shared" si="1"/>
+        <v>1350</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
@@ -2574,29 +2589,29 @@
         <v>18</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G22" s="8">
-        <v>1350</v>
+        <v>888</v>
       </c>
       <c r="H22" s="5">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="0"/>
-        <v>1350</v>
+        <f t="shared" si="1"/>
+        <v>888</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
@@ -2607,32 +2622,32 @@
         <v>18</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G23" s="8">
-        <v>888</v>
+        <v>4699</v>
       </c>
       <c r="H23" s="5">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="0"/>
-        <v>888</v>
+        <f t="shared" si="1"/>
+        <v>4699</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>17</v>
       </c>
@@ -2640,29 +2655,29 @@
         <v>18</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G24" s="8">
-        <v>4699</v>
+        <v>3229</v>
       </c>
       <c r="H24" s="5">
         <v>1</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="0"/>
-        <v>4699</v>
+        <f t="shared" si="1"/>
+        <v>3229</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
@@ -2670,65 +2685,65 @@
         <v>18</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G25" s="8">
-        <v>3229</v>
+        <v>2056</v>
       </c>
       <c r="H25" s="5">
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="0"/>
-        <v>3229</v>
+        <f t="shared" si="1"/>
+        <v>2056</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>19</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>86</v>
+        <v>66</v>
+      </c>
+      <c r="E26" s="23">
+        <v>70147</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="G26" s="8">
-        <v>2056</v>
+        <v>407</v>
       </c>
       <c r="H26" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="0"/>
-        <v>2056</v>
+        <f t="shared" si="1"/>
+        <v>814</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
@@ -2736,66 +2751,50 @@
         <v>20</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="23">
-        <v>70147</v>
+        <v>25</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="G27" s="8">
-        <v>407</v>
+        <v>3327</v>
       </c>
       <c r="H27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" ref="I27:I37" si="1">G27*H27</f>
-        <v>814</v>
+        <f t="shared" si="1"/>
+        <v>3327</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="42.75" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>21</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="8">
-        <v>3327</v>
-      </c>
-      <c r="H28" s="5">
-        <v>1</v>
-      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="7">
-        <f t="shared" si="1"/>
-        <v>3327</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>103</v>
-      </c>
+        <f t="shared" ref="I27:I37" si="2">G28*H28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
@@ -2809,7 +2808,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="5"/>
       <c r="I29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J29" s="5"/>
@@ -2826,7 +2825,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="5"/>
       <c r="I30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J30" s="5"/>
@@ -2843,7 +2842,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
       <c r="I31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J31" s="5"/>
@@ -2860,7 +2859,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
       <c r="I32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J32" s="5"/>
@@ -2877,7 +2876,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="5"/>
       <c r="I33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J33" s="5"/>
@@ -2894,7 +2893,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="5"/>
       <c r="I34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J34" s="5"/>
@@ -2911,7 +2910,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="5"/>
       <c r="I35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J35" s="5"/>
@@ -2928,7 +2927,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="5"/>
       <c r="I36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J36" s="5"/>
@@ -2945,7 +2944,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="5"/>
       <c r="I37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J37" s="5"/>
@@ -2962,7 +2961,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="5"/>
       <c r="I38" s="7">
-        <f t="shared" ref="I38:I81" si="2">G38*H38</f>
+        <f t="shared" ref="I38:I81" si="3">G38*H38</f>
         <v>0</v>
       </c>
       <c r="J38" s="5"/>
@@ -2979,7 +2978,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="5"/>
       <c r="I39" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J39" s="5"/>
@@ -2996,7 +2995,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="5"/>
       <c r="I40" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J40" s="5"/>
@@ -3013,7 +3012,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="5"/>
       <c r="I41" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J41" s="5"/>
@@ -3030,7 +3029,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="5"/>
       <c r="I42" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J42" s="5"/>
@@ -3047,7 +3046,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="5"/>
       <c r="I43" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J43" s="5"/>
@@ -3064,7 +3063,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="5"/>
       <c r="I44" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J44" s="5"/>
@@ -3081,7 +3080,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="5"/>
       <c r="I45" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J45" s="5"/>
@@ -3098,7 +3097,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="5"/>
       <c r="I46" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J46" s="5"/>
@@ -3115,7 +3114,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="5"/>
       <c r="I47" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J47" s="5"/>
@@ -3132,7 +3131,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="5"/>
       <c r="I48" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J48" s="5"/>
@@ -3149,7 +3148,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="5"/>
       <c r="I49" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J49" s="5"/>
@@ -3166,7 +3165,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="5"/>
       <c r="I50" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J50" s="5"/>
@@ -3183,7 +3182,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="5"/>
       <c r="I51" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J51" s="5"/>
@@ -3200,7 +3199,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="5"/>
       <c r="I52" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J52" s="5"/>
@@ -3217,7 +3216,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="5"/>
       <c r="I53" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J53" s="5"/>
@@ -3234,7 +3233,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="5"/>
       <c r="I54" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J54" s="5"/>
@@ -3251,7 +3250,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="5"/>
       <c r="I55" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J55" s="5"/>
@@ -3268,7 +3267,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="5"/>
       <c r="I56" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J56" s="5"/>
@@ -3285,7 +3284,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="5"/>
       <c r="I57" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J57" s="5"/>
@@ -3302,7 +3301,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="5"/>
       <c r="I58" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J58" s="5"/>
@@ -3319,7 +3318,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="5"/>
       <c r="I59" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J59" s="5"/>
@@ -3336,7 +3335,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="5"/>
       <c r="I60" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J60" s="5"/>
@@ -3353,7 +3352,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="5"/>
       <c r="I61" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J61" s="5"/>
@@ -3370,7 +3369,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="5"/>
       <c r="I62" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J62" s="5"/>
@@ -3387,7 +3386,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="5"/>
       <c r="I63" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J63" s="5"/>
@@ -3404,7 +3403,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="5"/>
       <c r="I64" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J64" s="5"/>
@@ -3421,7 +3420,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="5"/>
       <c r="I65" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J65" s="5"/>
@@ -3438,7 +3437,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="5"/>
       <c r="I66" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J66" s="5"/>
@@ -3455,7 +3454,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="5"/>
       <c r="I67" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J67" s="5"/>
@@ -3472,7 +3471,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="5"/>
       <c r="I68" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J68" s="5"/>
@@ -3489,7 +3488,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="5"/>
       <c r="I69" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J69" s="5"/>
@@ -3506,7 +3505,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="5"/>
       <c r="I70" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J70" s="5"/>
@@ -3523,7 +3522,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="5"/>
       <c r="I71" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J71" s="5"/>
@@ -3540,7 +3539,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="5"/>
       <c r="I72" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J72" s="5"/>
@@ -3557,7 +3556,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="5"/>
       <c r="I73" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J73" s="5"/>
@@ -3574,7 +3573,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="5"/>
       <c r="I74" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J74" s="5"/>
@@ -3591,7 +3590,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="5"/>
       <c r="I75" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J75" s="5"/>
@@ -3608,7 +3607,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="5"/>
       <c r="I76" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J76" s="5"/>
@@ -3625,7 +3624,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="5"/>
       <c r="I77" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J77" s="5"/>
@@ -3642,7 +3641,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="5"/>
       <c r="I78" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J78" s="5"/>
@@ -3659,7 +3658,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="5"/>
       <c r="I79" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J79" s="5"/>
@@ -3676,7 +3675,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="5"/>
       <c r="I80" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J80" s="5"/>
@@ -3693,7 +3692,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="5"/>
       <c r="I81" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J81" s="5"/>
@@ -3710,7 +3709,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="5"/>
       <c r="I82" s="7">
-        <f t="shared" ref="I82:I96" si="3">G82*H82</f>
+        <f t="shared" ref="I82:I96" si="4">G82*H82</f>
         <v>0</v>
       </c>
       <c r="J82" s="5"/>
@@ -3727,7 +3726,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="5"/>
       <c r="I83" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J83" s="5"/>
@@ -3744,7 +3743,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="5"/>
       <c r="I84" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J84" s="5"/>
@@ -3761,7 +3760,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="5"/>
       <c r="I85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J85" s="5"/>
@@ -3778,7 +3777,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="5"/>
       <c r="I86" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J86" s="5"/>
@@ -3795,7 +3794,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="5"/>
       <c r="I87" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J87" s="5"/>
@@ -3812,7 +3811,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="5"/>
       <c r="I88" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J88" s="5"/>
@@ -3829,7 +3828,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="5"/>
       <c r="I89" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J89" s="5"/>
@@ -3846,7 +3845,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="5"/>
       <c r="I90" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J90" s="5"/>
@@ -3863,7 +3862,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="5"/>
       <c r="I91" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J91" s="5"/>
@@ -3880,7 +3879,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="5"/>
       <c r="I92" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J92" s="5"/>
@@ -3897,7 +3896,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="5"/>
       <c r="I93" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J93" s="5"/>
@@ -3914,7 +3913,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="5"/>
       <c r="I94" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J94" s="5"/>
@@ -3931,7 +3930,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="5"/>
       <c r="I95" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J95" s="5"/>
@@ -3948,7 +3947,7 @@
       <c r="G96" s="6"/>
       <c r="H96" s="5"/>
       <c r="I96" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J96" s="5"/>
@@ -3956,7 +3955,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="98" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/G000_ETロボコン・シニア部門作っちゃおうかな/部品表/Tenibo部品表.xlsx
+++ b/G000_ETロボコン・シニア部門作っちゃおうかな/部品表/Tenibo部品表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -687,6 +687,99 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中継用コネクタ 4.2mmピッチ ニューミニフィット プラグハウジング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UL94V-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5557-5559</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中継用コネクタ 4.2mmピッチ ニューミニフィット ターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄銅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5556-5558</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本モレックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水中ロボコン開発の余り、極数各種、設計資料のエレキ参照</t>
+    <rPh sb="0" eb="2">
+      <t>スイチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョクスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100Mオーム炭素皮膜抵抗</t>
+    <rPh sb="7" eb="9">
+      <t>タンソ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒマク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12V電源の電圧計作成</t>
+    <rPh sb="3" eb="5">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>デンアツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -936,7 +1029,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17885656-323C-4DBD-BEAD-7AB1C4125184}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17885656-323C-4DBD-BEAD-7AB1C4125184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C26" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2015,7 +2108,7 @@
       </c>
       <c r="C3" s="18">
         <f>SUM(I8:I96)</f>
-        <v>54149</v>
+        <v>55849</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>23</v>
@@ -2145,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" ref="I8:I26" si="0">G8*H8</f>
+        <f t="shared" ref="I8:I12" si="0">G8*H8</f>
         <v>16196</v>
       </c>
       <c r="J8" s="5" t="s">
@@ -2779,56 +2872,104 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>21</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="8">
+        <v>800</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
       <c r="I28" s="7">
-        <f t="shared" ref="I27:I37" si="2">G28*H28</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="5"/>
+        <f t="shared" ref="I28:I37" si="2">G28*H28</f>
+        <v>800</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>22</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="8">
+        <v>800</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
       <c r="I29" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>800</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>23</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="8">
+        <v>100</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
       <c r="I30" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="5">

--- a/G000_ETロボコン・シニア部門作っちゃおうかな/部品表/Tenibo部品表.xlsx
+++ b/G000_ETロボコン・シニア部門作っちゃおうかな/部品表/Tenibo部品表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="118">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -781,6 +781,59 @@
     <rPh sb="9" eb="11">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニバーサル基板</t>
+    <rPh sb="6" eb="8">
+      <t>キバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベークライト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水中ロボコン開発の余り</t>
+    <rPh sb="0" eb="2">
+      <t>スイチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅</t>
+    <rPh sb="0" eb="1">
+      <t>ドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビニール皮膜銅線</t>
+    <rPh sb="4" eb="6">
+      <t>ヒマク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1029,7 +1082,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17885656-323C-4DBD-BEAD-7AB1C4125184}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17885656-323C-4DBD-BEAD-7AB1C4125184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2108,7 +2161,7 @@
       </c>
       <c r="C3" s="18">
         <f>SUM(I8:I96)</f>
-        <v>55849</v>
+        <v>56149</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>23</v>
@@ -2975,35 +3028,67 @@
       <c r="A31" s="5">
         <v>24</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="8">
+        <v>100</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
       <c r="I31" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>25</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="8">
+        <v>200</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
       <c r="I32" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
